--- a/Team-Data/2007-08/4-4-2007-08.xlsx
+++ b/Team-Data/2007-08/4-4-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
         <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>0.461</v>
+        <v>0.467</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J2" t="n">
         <v>79.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M2" t="n">
         <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O2" t="n">
         <v>21.1</v>
       </c>
       <c r="P2" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
         <v>12.3</v>
@@ -714,16 +781,16 @@
         <v>30</v>
       </c>
       <c r="T2" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U2" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
         <v>5.6</v>
@@ -738,22 +805,22 @@
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="n">
         <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>4</v>
@@ -774,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -792,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -801,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY2" t="n">
         <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
         <v>9</v>
@@ -992,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
         <v>47</v>
       </c>
       <c r="G4" t="n">
-        <v>0.382</v>
+        <v>0.373</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,7 +1115,7 @@
         <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K4" t="n">
         <v>0.449</v>
@@ -1060,7 +1127,7 @@
         <v>17.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O4" t="n">
         <v>18.2</v>
@@ -1069,19 +1136,19 @@
         <v>25.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.711</v>
+        <v>0.71</v>
       </c>
       <c r="R4" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S4" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T4" t="n">
         <v>40.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
@@ -1096,19 +1163,19 @@
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.5</v>
+        <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1126,10 +1193,10 @@
         <v>25</v>
       </c>
       <c r="AJ4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK4" t="n">
         <v>19</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1150,7 +1217,7 @@
         <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1159,25 +1226,25 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1326,13 +1393,13 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1508,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1541,13 +1608,13 @@
         <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB6" t="n">
         <v>19</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
         <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.618</v>
+        <v>0.627</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J7" t="n">
         <v>79.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
@@ -1609,22 +1676,22 @@
         <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P7" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U7" t="n">
         <v>20.9</v>
@@ -1642,34 +1709,34 @@
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA7" t="n">
         <v>21.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1678,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>19</v>
@@ -1696,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
@@ -1720,10 +1787,10 @@
         <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -1836,19 +1903,19 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1961,7 +2028,7 @@
         <v>79.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
@@ -1973,52 +2040,52 @@
         <v>0.372</v>
       </c>
       <c r="O9" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R9" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S9" t="n">
         <v>29.3</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y9" t="n">
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2045,10 +2112,10 @@
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>18</v>
@@ -2066,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2078,19 +2145,19 @@
         <v>16</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
       </c>
       <c r="BB9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" t="n">
         <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="J10" t="n">
         <v>89.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L10" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O10" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
         <v>0.753</v>
@@ -2167,16 +2234,16 @@
         <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V10" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W10" t="n">
         <v>9.1</v>
@@ -2191,19 +2258,19 @@
         <v>22.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>12</v>
@@ -2212,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2233,10 +2300,10 @@
         <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>19</v>
@@ -2245,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
@@ -2254,7 +2321,7 @@
         <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
@@ -2269,7 +2336,7 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J11" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K11" t="n">
         <v>0.449</v>
@@ -2331,31 +2398,31 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O11" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R11" t="n">
         <v>12.3</v>
       </c>
       <c r="S11" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T11" t="n">
         <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V11" t="n">
         <v>13.9</v>
@@ -2370,19 +2437,19 @@
         <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA11" t="n">
         <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2394,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
@@ -2412,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
         <v>8</v>
@@ -2430,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -2439,10 +2506,10 @@
         <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
         <v>12</v>
@@ -2454,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
         <v>44</v>
       </c>
       <c r="G12" t="n">
-        <v>0.421</v>
+        <v>0.413</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.442</v>
@@ -2513,22 +2580,22 @@
         <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
         <v>31.9</v>
@@ -2540,7 +2607,7 @@
         <v>22.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W12" t="n">
         <v>7.7</v>
@@ -2555,16 +2622,16 @@
         <v>23.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB12" t="n">
         <v>103.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2585,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2618,7 +2685,7 @@
         <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,22 +2825,22 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
       </c>
       <c r="AM13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
         <v>29</v>
@@ -2791,13 +2858,13 @@
         <v>25</v>
       </c>
       <c r="AS13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
         <v>14</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
         <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,10 +2935,10 @@
         <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
         <v>7.9</v>
@@ -2880,25 +2947,25 @@
         <v>21.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R14" t="n">
         <v>10.9</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
         <v>24.3</v>
@@ -2919,28 +2986,28 @@
         <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="AC14" t="n">
         <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2949,7 +3016,7 @@
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>0.263</v>
+        <v>0.267</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L15" t="n">
         <v>7.5</v>
@@ -3062,16 +3129,16 @@
         <v>21.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R15" t="n">
         <v>10.2</v>
@@ -3083,10 +3150,10 @@
         <v>41.5</v>
       </c>
       <c r="U15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
         <v>6.1</v>
@@ -3098,19 +3165,19 @@
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA15" t="n">
         <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,10 +3189,10 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3152,13 +3219,13 @@
         <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>29</v>
@@ -3170,19 +3237,19 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>18</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA15" t="n">
         <v>7</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" t="n">
-        <v>0.171</v>
+        <v>0.173</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,67 +3299,67 @@
         <v>34.4</v>
       </c>
       <c r="J16" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.446</v>
       </c>
       <c r="L16" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.356</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R16" t="n">
         <v>9.1</v>
       </c>
       <c r="S16" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T16" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="U16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V16" t="n">
         <v>14.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z16" t="n">
         <v>20.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-9</v>
+        <v>-8.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
@@ -3322,22 +3389,22 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" t="n">
         <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" t="n">
-        <v>0.347</v>
+        <v>0.351</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,7 +3484,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
@@ -3426,13 +3493,13 @@
         <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q17" t="n">
         <v>0.736</v>
@@ -3444,37 +3511,37 @@
         <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA17" t="n">
         <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.4</v>
+        <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3489,49 +3556,49 @@
         <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
         <v>22</v>
       </c>
       <c r="AP17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV17" t="n">
         <v>15</v>
       </c>
-      <c r="AV17" t="n">
-        <v>18</v>
-      </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="n">
-        <v>0.253</v>
+        <v>0.257</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3596,34 +3663,34 @@
         <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>82.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N18" t="n">
         <v>0.344</v>
       </c>
       <c r="O18" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.734</v>
+        <v>0.736</v>
       </c>
       <c r="R18" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S18" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
         <v>41.1</v>
@@ -3632,31 +3699,31 @@
         <v>19.9</v>
       </c>
       <c r="V18" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W18" t="n">
         <v>7.6</v>
       </c>
       <c r="X18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.9</v>
+        <v>-6.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3677,7 +3744,7 @@
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3695,22 +3762,22 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS18" t="n">
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
         <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>0.408</v>
+        <v>0.413</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
@@ -3784,31 +3851,31 @@
         <v>0.442</v>
       </c>
       <c r="L19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O19" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P19" t="n">
         <v>27.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R19" t="n">
         <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T19" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
@@ -3826,31 +3893,31 @@
         <v>4.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA19" t="n">
         <v>22.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3859,10 +3926,10 @@
         <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
@@ -3886,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3895,16 +3962,16 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>9</v>
       </c>
       <c r="AZ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.707</v>
+        <v>0.703</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3963,7 +4030,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
@@ -3972,25 +4039,25 @@
         <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="O20" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P20" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R20" t="n">
         <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T20" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
@@ -4005,7 +4072,7 @@
         <v>3.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
@@ -4014,13 +4081,13 @@
         <v>19.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC20" t="n">
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
         <v>3</v>
@@ -4038,7 +4105,7 @@
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
         <v>8</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4062,13 +4129,13 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
         <v>13</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>9</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" t="n">
-        <v>0.263</v>
+        <v>0.267</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J21" t="n">
         <v>81.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
@@ -4154,31 +4221,31 @@
         <v>17.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O21" t="n">
         <v>18.8</v>
       </c>
       <c r="P21" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R21" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S21" t="n">
         <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U21" t="n">
         <v>18.6</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>6.3</v>
@@ -4193,16 +4260,16 @@
         <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC21" t="n">
         <v>-7</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4217,13 +4284,13 @@
         <v>3</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4235,22 +4302,22 @@
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR21" t="n">
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
@@ -4259,7 +4326,7 @@
         <v>13</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4274,7 +4341,7 @@
         <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4402,7 +4469,7 @@
         <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4423,19 +4490,19 @@
         <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>15</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="n">
         <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.513</v>
+        <v>0.507</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4509,7 +4576,7 @@
         <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
@@ -4518,7 +4585,7 @@
         <v>11.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="O23" t="n">
         <v>18.7</v>
@@ -4527,22 +4594,22 @@
         <v>26.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="R23" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S23" t="n">
         <v>28.9</v>
       </c>
       <c r="T23" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
         <v>8.6</v>
@@ -4557,16 +4624,16 @@
         <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>14</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4608,19 +4675,19 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>4</v>
@@ -4635,10 +4702,10 @@
         <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" t="n">
         <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,10 +4755,10 @@
         <v>41.5</v>
       </c>
       <c r="J24" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K24" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="L24" t="n">
         <v>8.6</v>
@@ -4700,25 +4767,25 @@
         <v>21.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O24" t="n">
         <v>18.8</v>
       </c>
       <c r="P24" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U24" t="n">
         <v>26.9</v>
@@ -4727,7 +4794,7 @@
         <v>14.6</v>
       </c>
       <c r="W24" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X24" t="n">
         <v>6.5</v>
@@ -4736,19 +4803,19 @@
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
         <v>21.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
@@ -4760,16 +4827,16 @@
         <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24" t="n">
         <v>4</v>
@@ -4778,10 +4845,10 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -4793,10 +4860,10 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,7 +4872,7 @@
         <v>17</v>
       </c>
       <c r="AW24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>-1.1</v>
       </c>
       <c r="AD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH25" t="n">
         <v>2</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1</v>
       </c>
       <c r="AI25" t="n">
         <v>27</v>
@@ -4951,7 +5018,7 @@
         <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4969,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
@@ -4981,10 +5048,10 @@
         <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5130,7 +5197,7 @@
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="n">
         <v>10</v>
@@ -5142,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="n">
         <v>52</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L27" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O27" t="n">
         <v>16.7</v>
@@ -5258,25 +5325,25 @@
         <v>0.764</v>
       </c>
       <c r="R27" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T27" t="n">
         <v>41.4</v>
       </c>
       <c r="U27" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V27" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>4.4</v>
@@ -5285,19 +5352,19 @@
         <v>18.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.8</v>
+        <v>96.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF27" t="n">
         <v>4</v>
@@ -5306,19 +5373,19 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>26</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>28</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
         <v>8</v>
@@ -5345,7 +5412,7 @@
         <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5363,13 +5430,13 @@
         <v>2</v>
       </c>
       <c r="BA27" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB27" t="n">
         <v>24</v>
       </c>
-      <c r="BB27" t="n">
-        <v>25</v>
-      </c>
       <c r="BC27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="n">
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" t="n">
-        <v>0.224</v>
+        <v>0.227</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="J28" t="n">
         <v>85.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="O28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="R28" t="n">
         <v>11.8</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="O28" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="P28" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="R28" t="n">
-        <v>12</v>
-      </c>
       <c r="S28" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T28" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U28" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V28" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W28" t="n">
         <v>6.4</v>
@@ -5464,19 +5531,19 @@
         <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA28" t="n">
         <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC28" t="n">
         <v>-8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5521,13 +5588,13 @@
         <v>10</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5536,19 +5603,19 @@
         <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
         <v>27</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="n">
         <v>38</v>
       </c>
       <c r="F29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,40 +5665,40 @@
         <v>38.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L29" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M29" t="n">
         <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>0.398</v>
+        <v>0.4</v>
       </c>
       <c r="O29" t="n">
         <v>16.4</v>
       </c>
       <c r="P29" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V29" t="n">
         <v>11.8</v>
@@ -5646,31 +5713,31 @@
         <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB29" t="n">
         <v>100.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5703,7 +5770,7 @@
         <v>27</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5724,13 +5791,13 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -5762,43 +5829,43 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" t="n">
         <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.662</v>
+        <v>0.658</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="J30" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M30" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q30" t="n">
         <v>0.758</v>
@@ -5807,13 +5874,13 @@
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T30" t="n">
         <v>40.7</v>
       </c>
       <c r="U30" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="V30" t="n">
         <v>14.7</v>
@@ -5828,16 +5895,16 @@
         <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.9</v>
+        <v>107.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5861,13 +5928,13 @@
         <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
       </c>
       <c r="AM30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
         <v>5</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="n">
         <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.513</v>
+        <v>0.507</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5962,19 +6029,19 @@
         <v>36.4</v>
       </c>
       <c r="J31" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M31" t="n">
         <v>19.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O31" t="n">
         <v>19.2</v>
@@ -5983,7 +6050,7 @@
         <v>24.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R31" t="n">
         <v>12</v>
@@ -5992,16 +6059,16 @@
         <v>29.2</v>
       </c>
       <c r="T31" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U31" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V31" t="n">
         <v>13.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X31" t="n">
         <v>4.9</v>
@@ -6016,13 +6083,13 @@
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6052,7 +6119,7 @@
         <v>10</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6070,7 +6137,7 @@
         <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6082,13 +6149,13 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6097,7 +6164,7 @@
         <v>14</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-4-2007-08</t>
+          <t>2008-04-04</t>
         </is>
       </c>
     </row>
